--- a/ImageJPlugins_CT_Tools/src/CT_Tools/CT_Tools_ToDo.xlsx
+++ b/ImageJPlugins_CT_Tools/src/CT_Tools/CT_Tools_ToDo.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\New-workspace\ImageJProject\PluginSourceFiles\CT_Tools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23625" windowHeight="11220" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ToDo" sheetId="1" r:id="rId1"/>
+    <sheet name="Dependencies" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O35"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>/ImageJProject/PluginSourceFiles/CT_Tools/Apply_Linearization.java</t>
   </si>
@@ -129,75 +125,6 @@
     <t>moved to oldCode.replaced by Linearization_Demo macro</t>
   </si>
   <si>
-    <t>srcToDet</t>
-  </si>
-  <si>
-    <t>srcToSamp</t>
-  </si>
-  <si>
-    <t>Mag</t>
-  </si>
-  <si>
-    <t>SrcToSamp</t>
-  </si>
-  <si>
-    <t>originalWidth</t>
-  </si>
-  <si>
-    <t>minDetCnt</t>
-  </si>
-  <si>
-    <t>padding</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>axisToDet</t>
-  </si>
-  <si>
-    <t>mag</t>
-  </si>
-  <si>
-    <t>sinogram.length</t>
-  </si>
-  <si>
-    <t>numAngles</t>
-  </si>
-  <si>
-    <t>paddedWidth</t>
-  </si>
-  <si>
-    <t>detPixCnt</t>
-  </si>
-  <si>
-    <t>magnification</t>
-  </si>
-  <si>
-    <t>allocated for sinogram</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>ceil</t>
-  </si>
-  <si>
-    <t>image width</t>
-  </si>
-  <si>
-    <t>detWidthPix</t>
-  </si>
-  <si>
-    <t>sinogram angles</t>
-  </si>
-  <si>
     <t>Stored Settings</t>
   </si>
   <si>
@@ -238,6 +165,75 @@
   </si>
   <si>
     <t>TagSlice_To_Parallel_Brems_Sinogram2.java</t>
+  </si>
+  <si>
+    <t>MuMassCalculator</t>
+  </si>
+  <si>
+    <t>jhd.TagTools</t>
+  </si>
+  <si>
+    <t>jhd.ImageJAddins.</t>
+  </si>
+  <si>
+    <t>Xray_SpectrumPlotter.java</t>
+  </si>
+  <si>
+    <t>Xray_Lookup_Ratio.java</t>
+  </si>
+  <si>
+    <t>Xray_Lookup_MuLin.java</t>
+  </si>
+  <si>
+    <t>Xray_Calculator.java</t>
+  </si>
+  <si>
+    <t>Tag_Image_To_Parallel_Brems_Sinogram.java</t>
+  </si>
+  <si>
+    <t>Tag_Image_To_MuLin.java</t>
+  </si>
+  <si>
+    <t>Tag_Image_To_Fan_Brems_Sinogram.java</t>
+  </si>
+  <si>
+    <t>Scanner_Setup.java</t>
+  </si>
+  <si>
+    <t>MuLin_Image_To_Parallel_Sinogram.java</t>
+  </si>
+  <si>
+    <t>MuLin_Image_To_Fan_Sinogram.java</t>
+  </si>
+  <si>
+    <t>Materials_Editor.java</t>
+  </si>
+  <si>
+    <t>Material_Tagger.java</t>
+  </si>
+  <si>
+    <t>CT_Recon_ParallelBeam.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply_Linearization.java </t>
+  </si>
+  <si>
+    <t>Addins</t>
+  </si>
+  <si>
+    <t>BaseRecon.exe</t>
+  </si>
+  <si>
+    <t>MuMassCalculatorLib</t>
+  </si>
+  <si>
+    <t>CT_Recon</t>
+  </si>
+  <si>
+    <t>TagTools (built in)</t>
+  </si>
+  <si>
+    <t>Show_Image_Properties.java</t>
   </si>
 </sst>
 </file>
@@ -353,6 +349,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:D20" totalsRowShown="0">
+  <autoFilter ref="A4:D20"/>
+  <sortState ref="A23:D66">
+    <sortCondition ref="A22:A66"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="CT_Recon"/>
+    <tableColumn id="2" name="Addins"/>
+    <tableColumn id="4" name="MuMassCalculator"/>
+    <tableColumn id="3" name="TagTools (built in)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -935,12 +947,12 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -955,7 +967,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -970,7 +982,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -985,7 +997,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1000,7 +1012,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1015,12 +1027,12 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1035,7 +1047,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1048,7 +1060,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1061,7 +1073,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1074,7 +1086,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1087,7 +1099,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1105,794 +1117,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q40"/>
+  <dimension ref="A4:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="I2">
-        <f>F4</f>
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2">
-        <f>B2*I2</f>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3">
-        <f>F3</f>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <f>F2/F3</f>
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <f>I2*I3</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="M7">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <f>F6-F7</f>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8">
-        <f>I6*(1-1/I7)</f>
-        <v>99.9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <f>F6/F8</f>
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9">
-        <f>M7*M8</f>
-        <v>281.60000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>248404</v>
-      </c>
-      <c r="E14">
-        <f>C14/C17</f>
-        <v>884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
-        <v>281</v>
-      </c>
-      <c r="E17">
-        <f>C17*C15</f>
-        <v>248404</v>
-      </c>
-      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" t="s">
         <v>50</v>
       </c>
-      <c r="O19" t="s">
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="P19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>264017</v>
-      </c>
-      <c r="E20">
-        <f>C20/C22</f>
-        <v>299</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20:M40" si="0">L20*$M$7</f>
-        <v>256</v>
-      </c>
-      <c r="N20">
-        <f>INT(M20)</f>
-        <v>256</v>
-      </c>
-      <c r="O20">
-        <f>ROUND(M20,0)</f>
-        <v>256</v>
-      </c>
-      <c r="P20">
-        <f>FLOOR(M20,1)</f>
-        <v>256</v>
-      </c>
-      <c r="Q20">
-        <f>CEILING(M20,1)</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>880</v>
-      </c>
-      <c r="L21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>281.60000000000002</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ref="N21:N40" si="1">INT(M21)</f>
-        <v>281</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ref="O21:O40" si="2">ROUND(M21,0)</f>
-        <v>282</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ref="P21:P40" si="3">FLOOR(M21,1)</f>
-        <v>281</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" ref="Q21:Q40" si="4">CEILING(M21,1)</f>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>883</v>
-      </c>
-      <c r="L22">
-        <v>1.2</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>307.2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>307</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
-        <v>307</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
-        <v>307</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="4"/>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <v>272</v>
-      </c>
-      <c r="E23">
-        <f>C23*C21</f>
-        <v>239360</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="L23">
-        <v>1.3</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>332.8</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="1"/>
-        <v>332</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>333</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>332</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="4"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>300</v>
-      </c>
-      <c r="L24">
-        <v>1.4</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>358.4</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>358</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>358</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="3"/>
-        <v>358</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L25">
-        <v>1.5</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>384</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="3"/>
-        <v>384</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="4"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <v>1.6</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>409.6</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
-        <v>409</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
-        <v>410</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
-        <v>409</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="4"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L27">
-        <v>1.7</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>435.2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>435</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
-        <v>435</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="3"/>
-        <v>435</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L28">
-        <v>1.8</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>460.8</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>460</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>461</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="4"/>
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L29">
-        <v>1.9</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>486.4</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>486</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
-        <v>486</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="3"/>
-        <v>486</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="4"/>
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
-        <v>512</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
-        <v>512</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
-        <v>512</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="4"/>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L31">
-        <v>2.1</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>537.6</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
-        <v>537</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="2"/>
-        <v>538</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="3"/>
-        <v>537</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="4"/>
-        <v>538</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>563.20000000000005</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>563</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="2"/>
-        <v>563</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="3"/>
-        <v>563</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
-        <v>564</v>
-      </c>
-    </row>
-    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L33">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>588.79999999999995</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
-        <v>588</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="2"/>
-        <v>589</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="3"/>
-        <v>588</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="4"/>
-        <v>589</v>
-      </c>
-    </row>
-    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L34">
-        <v>2.4</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
-        <v>614.4</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>614</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="2"/>
-        <v>614</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="3"/>
-        <v>614</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="4"/>
-        <v>615</v>
-      </c>
-    </row>
-    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L35">
-        <v>2.5</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="2"/>
-        <v>640</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="4"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L36">
-        <v>2.6</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>665.6</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
-        <v>665</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="2"/>
-        <v>666</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="3"/>
-        <v>665</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="4"/>
-        <v>666</v>
-      </c>
-    </row>
-    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L37">
-        <v>2.7</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="0"/>
-        <v>691.2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
-        <v>691</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="2"/>
-        <v>691</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="3"/>
-        <v>691</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="4"/>
-        <v>692</v>
-      </c>
-    </row>
-    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L38">
-        <v>2.8</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
-        <v>716.8</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
-        <v>716</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="2"/>
-        <v>717</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="3"/>
-        <v>716</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="4"/>
-        <v>717</v>
-      </c>
-    </row>
-    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L39">
-        <v>2.9</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
-        <v>742.4</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
-        <v>742</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="2"/>
-        <v>742</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="3"/>
-        <v>742</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="4"/>
-        <v>743</v>
-      </c>
-    </row>
-    <row r="40" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="0"/>
-        <v>768</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
-        <v>768</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="2"/>
-        <v>768</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="3"/>
-        <v>768</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="4"/>
-        <v>768</v>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>